--- a/ResultadoEleicoesDistritos/SETÚBAL_SETÚBAL.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_SETÚBAL.xlsx
@@ -597,64 +597,64 @@
         <v>31842</v>
       </c>
       <c r="H2" t="n">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="I2" t="n">
-        <v>3174</v>
+        <v>3116</v>
       </c>
       <c r="J2" t="n">
-        <v>13278</v>
+        <v>13144</v>
       </c>
       <c r="K2" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L2" t="n">
-        <v>3541</v>
+        <v>3582</v>
       </c>
       <c r="M2" t="n">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="N2" t="n">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P2" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="R2" t="n">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="S2" t="n">
-        <v>1364</v>
+        <v>1409</v>
       </c>
       <c r="T2" t="n">
-        <v>2260</v>
+        <v>2281</v>
       </c>
       <c r="U2" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="V2" t="n">
-        <v>20433</v>
+        <v>20378</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>20339</v>
+        <v>20329</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="AA2" t="n">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
